--- a/Projects/CCNAYARMX/Puestos_Fijos/Data/NayarPuestosFijos2020v1.xlsx
+++ b/Projects/CCNAYARMX/Puestos_Fijos/Data/NayarPuestosFijos2020v1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,10 +15,20 @@
     <sheet name="POSM Availability" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Combo" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Scoring" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Final Scoring" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$J$10</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$J$10</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$J$10</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$J$10</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$J$10</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$10</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$10</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$10</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$10</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$10</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$10</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -30,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="144">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -149,6 +159,9 @@
     <t xml:space="preserve">If ICE Score at least 80% and subcategory of water present in scene then kpi passes</t>
   </si>
   <si>
+    <t xml:space="preserve">Final Scoring</t>
+  </si>
+  <si>
     <t xml:space="preserve">Top level Parent of All KPIs where all awarded points are aggregated</t>
   </si>
   <si>
@@ -209,6 +222,15 @@
     <t xml:space="preserve">template_group</t>
   </si>
   <si>
+    <t xml:space="preserve">mandatory_survey_question_fk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">additional_survey_question_fk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">additional_survey_question_requirement_pass</t>
+  </si>
+  <si>
     <t xml:space="preserve">store_additional_attribute_2</t>
   </si>
   <si>
@@ -284,7 +306,10 @@
     <t xml:space="preserve">Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Producto frío</t>
+    <t xml:space="preserve">Producto Frío</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31,32,33,34,35</t>
   </si>
   <si>
     <t xml:space="preserve">Grande</t>
@@ -405,9 +430,6 @@
   </si>
   <si>
     <t xml:space="preserve">The session have 80 point or more and have an specific sub_category?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Producto Frío</t>
   </si>
   <si>
     <t xml:space="preserve">kpi_name</t>
@@ -813,26 +835,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.01481481481481"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.062962962963"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.01481481481481"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.1074074074074"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.01481481481481"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="49.5851851851852"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.9888888888889"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="121.122222222222"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7777777777778"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.5111111111111"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.7777777777778"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8888888888889"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7777777777778"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="62.0296296296296"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.9666666666667"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="151.988888888889"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="10.7777777777778"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -897,7 +919,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="17" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
@@ -923,7 +945,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="34" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
@@ -951,7 +973,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="34" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
@@ -979,7 +1001,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
@@ -1005,7 +1027,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="34" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
@@ -1037,7 +1059,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
@@ -1063,7 +1085,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="51" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
@@ -1095,7 +1117,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
@@ -1111,22 +1133,16 @@
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J10">
-    <filterColumn colId="3">
-      <customFilters and="true">
-        <customFilter operator="equal" val="Tiene Coca Cola Original y Tiene Categorias Adicionales.-Puestos"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J10"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1151,13 +1167,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.01481481481481"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.5555555555556"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.01481481481481"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.0148148148148"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.5777777777778"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.4074074074074"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7777777777778"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.2962962962963"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.7777777777778"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.2481481481481"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.7518518518519"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="66.8333333333333"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.7777777777778"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1174,37 +1190,37 @@
         <v>6</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P1" s="8" t="s">
         <v>8</v>
@@ -1224,25 +1240,25 @@
         <v>32</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>100</v>
@@ -1275,7 +1291,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.662962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1283,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>2</v>
@@ -1328,30 +1344,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF4"/>
+  <dimension ref="A1:AI4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="9.01481481481481"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="54.6814814814815"/>
-    <col collapsed="false" hidden="false" max="19" min="5" style="0" width="9.01481481481481"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="30.1814814814815"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="39.1"/>
-    <col collapsed="false" hidden="false" max="31" min="22" style="0" width="9.01481481481481"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="64.5777777777778"/>
-    <col collapsed="false" hidden="false" max="1025" min="33" style="0" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.7777777777778"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="68.3"/>
+    <col collapsed="false" hidden="false" max="22" min="5" style="0" width="10.7777777777778"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="37.4333333333333"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="48.7037037037037"/>
+    <col collapsed="false" hidden="false" max="34" min="25" style="0" width="10.7777777777778"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="80.9444444444445"/>
+    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="10.7777777777778"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>2</v>
@@ -1363,88 +1379,97 @@
         <v>6</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="K1" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="J1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>63</v>
       </c>
+      <c r="L1" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="M1" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T1" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V1" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W1" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X1" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y1" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z1" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA1" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB1" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC1" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD1" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE1" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF1" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>84</v>
+      </c>
+      <c r="AG1" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI1" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="114.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
@@ -1461,88 +1486,97 @@
         <v>13</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="N2" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="L2" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>90</v>
-      </c>
       <c r="O2" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="P2" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="S2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Q2" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="R2" s="0" t="n">
+      <c r="T2" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="U2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="S2" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="T2" s="15" t="s">
+      <c r="V2" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="U2" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="V2" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="W2" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="X2" s="0" t="s">
+      <c r="W2" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="X2" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y2" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z2" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA2" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="Y2" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z2" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA2" s="0" t="n">
+      <c r="AD2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AB2" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC2" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD2" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE2" s="0" t="s">
-        <v>100</v>
+      <c r="AE2" s="16" t="s">
+        <v>102</v>
       </c>
       <c r="AF2" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+      <c r="AG2" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH2" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI2" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="114.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
         <v>1</v>
       </c>
@@ -1559,88 +1593,97 @@
         <v>13</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="K3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="W3" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="X3" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y3" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z3" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA3" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="AF3" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="J3" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>37</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="P3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="R3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="U3" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="V3" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="W3" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="X3" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z3" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC3" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD3" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE3" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF3" s="16" t="s">
+      <c r="AG3" s="16" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH3" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI3" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="114.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
         <v>1</v>
       </c>
@@ -1657,85 +1700,94 @@
         <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="K4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="W4" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="X4" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y4" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z4" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA4" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF4" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>37</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="R4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="T4" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="U4" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="V4" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="W4" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="X4" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC4" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD4" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE4" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF4" s="16" t="s">
+      <c r="AG4" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH4" s="0" t="s">
         <v>105</v>
+      </c>
+      <c r="AI4" s="16" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1762,16 +1814,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.01481481481481"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6703703703704"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.01481481481481"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.3925925925926"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.6481481481481"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.4555555555556"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.2185185185185"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="9.01481481481481"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.737037037037"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7777777777778"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.2185185185185"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.7777777777778"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="55.2703703703704"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="52.0333333333333"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="45.4703703703704"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.5259259259259"/>
+    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="10.7777777777778"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.8518518518519"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.7777777777778"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1788,40 +1840,40 @@
         <v>5</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="H1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="J1" s="8" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="Q1" s="8" t="s">
         <v>8</v>
@@ -1844,34 +1896,34 @@
         <v>27</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>2805</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="L2" s="20" t="n">
         <v>10</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="Q2" s="0" t="s">
         <v>24</v>
@@ -1894,19 +1946,19 @@
         <v>22</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>2357</v>
@@ -1916,10 +1968,10 @@
         <v>5</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="Q3" s="0" t="s">
         <v>24</v>
@@ -1952,32 +2004,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="16" width="12.837037037037"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="16" width="12.2481481481481"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="16" width="13.7185185185185"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="48.8"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="16" width="9.9962962962963"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="16" width="12.837037037037"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="16" width="10.7777777777778"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="16" width="16.1703703703704"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="16" width="7.34814814814815"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="16" width="12.837037037037"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="16" width="8.03703703703704"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="16" width="11.662962962963"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="16" width="22.7333333333333"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="16" width="12.837037037037"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="16" width="7.34814814814815"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="16" width="12.837037037037"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="16" width="7.15185185185185"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="16" width="15.6777777777778"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="16" width="14.6"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="16" width="16.8555555555556"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="60.8555555555556"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="16" width="12.2481481481481"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="16" width="15.6777777777778"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="16" width="13.1296296296296"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="16" width="19.6962962962963"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="16" width="8.23333333333333"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="16" width="15.6777777777778"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="16" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="16" width="14.0148148148148"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="16" width="27.9296296296296"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="16" width="15.6777777777778"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="16" width="8.23333333333333"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="16" width="15.6777777777778"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="16" width="8.03703703703704"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="10.7777777777778"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2000,43 +2052,43 @@
         <v>7</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="L1" s="23" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M1" s="23" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="N1" s="23" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O1" s="23" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P1" s="23" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="R1" s="23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="136" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="n">
         <v>8</v>
       </c>
@@ -2053,37 +2105,37 @@
         <v>37</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>17</v>
+        <v>130</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K2" s="16" t="n">
         <v>80</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="N2" s="16" t="n">
         <v>70</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P2" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q2" s="16" t="n">
         <v>1</v>
@@ -2092,6 +2144,17 @@
         <v>25</v>
       </c>
     </row>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2108,25 +2171,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1703703703704"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3259259259259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0518518518519"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8888888888889"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.0666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.01481481481481"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.4777777777778"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.3"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.4777777777778"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="39.6888888888889"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.6962962962963"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.537037037037"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.7740740740741"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.337037037037"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.337037037037"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.7777777777778"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.5555555555556"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="36.4555555555556"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="31.5555555555556"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="49.5851851851852"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.7777777777778"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2143,22 +2206,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="25" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2184,10 +2247,10 @@
         <v>11</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2210,13 +2273,13 @@
         <v>18</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="44.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2239,44 +2302,19 @@
         <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>110</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F10" s="4"/>
-    </row>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="4"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2286,4 +2324,105 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J65536"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.6962962962963"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.537037037037"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.7740740740741"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.337037037037"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.337037037037"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.7777777777778"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.5555555555556"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="36.4555555555556"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="31.5555555555556"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="49.5851851851852"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.7777777777778"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="4"/>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>